--- a/Automation/src/main/resources/test_data.xlsx
+++ b/Automation/src/main/resources/test_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/workspace/heal-qa-automation/Automation/src/com/heal/framework/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -181,13 +181,13 @@
     <t>Los Angeles</t>
   </si>
   <si>
-    <t>vahan+qa@heal.com</t>
-  </si>
-  <si>
     <t>Created by Automation</t>
   </si>
   <si>
-    <t>Heal4325!</t>
+    <t>vahan+dev@heal.com</t>
+  </si>
+  <si>
+    <t>Heal4325</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -730,7 +730,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -751,7 +751,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId1" display="vahan+qa@heal.com"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Automation/src/main/resources/test_data.xlsx
+++ b/Automation/src/main/resources/test_data.xlsx
@@ -184,10 +184,10 @@
     <t>Created by Automation</t>
   </si>
   <si>
-    <t>vahan+dev@heal.com</t>
-  </si>
-  <si>
-    <t>Heal4325</t>
+    <t>vahan+qa@heal.com</t>
+  </si>
+  <si>
+    <t>Heal4325!</t>
   </si>
 </sst>
 </file>
@@ -262,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -751,7 +751,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="vahan+qa@heal.com"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Automation/src/main/resources/test_data.xlsx
+++ b/Automation/src/main/resources/test_data.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Account" sheetId="1" r:id="rId4"/>
-    <sheet name="Patient" sheetId="2" r:id="rId5"/>
-    <sheet name="Card" sheetId="3" r:id="rId6"/>
+    <sheet name="Account" sheetId="1" r:id="rId1"/>
+    <sheet name="Patient" sheetId="2" r:id="rId2"/>
+    <sheet name="Card" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Key</t>
   </si>
@@ -38,7 +54,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
@@ -118,7 +134,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -169,17 +185,6 @@
     <t>no_Credit_Card_Id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>jay.purohit+qa2@heal.com</t>
-    </r>
-  </si>
-  <si>
     <t>ExpiryMonth</t>
   </si>
   <si>
@@ -199,34 +204,29 @@
   </si>
   <si>
     <t>Visa</t>
+  </si>
+  <si>
+    <t>vahan+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
@@ -237,7 +237,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
@@ -287,69 +287,104 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -551,7 +586,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -570,7 +605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -600,7 +635,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -626,7 +661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -652,7 +687,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +713,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +739,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +765,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +791,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +817,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,9 +856,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -840,7 +881,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -859,7 +900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1093,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,9 +1147,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1122,7 +1169,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1141,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,7 +1218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,7 +1348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1374,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1400,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,7 +1426,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,163 +1439,170 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>91344</v>
       </c>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="3">
+    <row r="15" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="4">
         <v>8182123842</v>
       </c>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" t="s" s="3">
+    <row r="16" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup scale="25" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Account</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
@@ -1557,146 +1611,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.8516" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="5" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="5" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="5" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="b" s="4">
+      <c r="B2" s="4" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>94105</v>
       </c>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4">
         <v>2015555555</v>
       </c>
     </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="3">
+    <row r="15" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s" s="3">
-        <v>46</v>
+      <c r="B15" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B15" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2" display="jay.purohit+qa2@heal.com"/>
   </hyperlinks>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup scale="25" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Patient</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
@@ -1705,85 +1761,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.8516" style="8" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="8" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>47</v>
+    <row r="2" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>48</v>
+    <row r="3" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="4">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s" s="3">
+    </row>
+    <row r="5" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="3">
-        <v>51</v>
       </c>
       <c r="B5" s="4">
         <v>314</v>
       </c>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B6" t="s" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
+    </row>
+    <row r="7" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup scale="25" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Card</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>

--- a/Automation/src/main/resources/test_data.xlsx
+++ b/Automation/src/main/resources/test_data.xlsx
@@ -1,19 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vahanmelikyan/Documents/heal/qa-automation/Automation/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20980" windowHeight="20480" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Account" sheetId="1" r:id="rId4"/>
-    <sheet name="Patient" sheetId="2" r:id="rId5"/>
-    <sheet name="Card" sheetId="3" r:id="rId6"/>
+    <sheet name="Patient" sheetId="2" r:id="rId1"/>
+    <sheet name="Account" sheetId="1" r:id="rId2"/>
+    <sheet name="Card" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Key</t>
   </si>
@@ -24,13 +40,7 @@
     <t>Firstname</t>
   </si>
   <si>
-    <t>Mihai</t>
-  </si>
-  <si>
     <t>Lastname</t>
-  </si>
-  <si>
-    <t>Muresan</t>
   </si>
   <si>
     <t>Email</t>
@@ -38,7 +48,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
@@ -116,62 +126,51 @@
     <t>PatientLastname</t>
   </si>
   <si>
+    <t>+1 201-555-5555</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>09/09/1989</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>MemberId</t>
+  </si>
+  <si>
+    <t>COST_ESTIMATES_025</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>BC001</t>
+  </si>
+  <si>
+    <t>Payer</t>
+  </si>
+  <si>
+    <t>Anthem Blue Cross</t>
+  </si>
+  <si>
+    <t>no_Credit_Card_Id</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>vahan+qa@heal.com</t>
-    </r>
-  </si>
-  <si>
-    <t>+1 201-555-5555</t>
-  </si>
-  <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>09/09/1989</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>MemberId</t>
-  </si>
-  <si>
-    <t>COST_ESTIMATES_025</t>
-  </si>
-  <si>
-    <t>GroupId</t>
-  </si>
-  <si>
-    <t>BC001</t>
-  </si>
-  <si>
-    <t>Payer</t>
-  </si>
-  <si>
-    <t>Anthem Blue Cross</t>
-  </si>
-  <si>
-    <t>no_Credit_Card_Id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
@@ -200,51 +199,47 @@
   <si>
     <t>Visa</t>
   </si>
+  <si>
+    <t>patientx@heal.com</t>
+  </si>
+  <si>
+    <t>Vahan</t>
+  </si>
+  <si>
+    <t>Melikyan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="12"/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -286,70 +281,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0563c1"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -551,7 +582,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -570,7 +601,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -600,7 +631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -626,7 +657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -652,7 +683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,9 +852,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -840,7 +877,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -859,7 +896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,7 +1052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1093,7 +1130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,9 +1143,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1122,7 +1165,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1141,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,7 +1344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,7 +1422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,163 +1435,322 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="5" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>94105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2015555555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup scale="25" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Patient</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="3">
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="5" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="6" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="7" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="3">
-        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>91344</v>
       </c>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="3">
+    <row r="10" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="3">
+    <row r="11" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="3">
+    <row r="12" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="3">
-        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="3">
-        <v>22</v>
+    <row r="13" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="3">
-        <v>25</v>
       </c>
       <c r="B15" s="4">
         <v>8182123842</v>
       </c>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="3">
-        <v>27</v>
+    <row r="16" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup scale="25" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Account</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
@@ -1556,234 +1758,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.8516" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.8516" style="5" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="7" customWidth="1"/>
+    <col min="3" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="B2" t="b" s="4">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
-        <v>94105</v>
-      </c>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="3">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="3">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="3">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s" s="3">
+    <row r="2" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2015555555</v>
-      </c>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s" s="3">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B15" r:id="rId2" location="" tooltip="" display=""/>
-  </hyperlinks>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Patient</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="8.85156" style="8" customWidth="1"/>
-    <col min="2" max="2" width="15.8516" style="8" customWidth="1"/>
-    <col min="3" max="256" width="8.85156" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>47</v>
       </c>
       <c r="B2" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="3">
-        <v>48</v>
+    <row r="3" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="4">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="3">
-        <v>51</v>
+    <row r="4" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B5" s="4">
         <v>314</v>
       </c>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+    <row r="6" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup scale="25" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Card</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10&amp;K000000Page &amp;P</oddFooter>
